--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_HUSTLE\PORGRAMMING\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_HUSTLE\PORGRAMMING\DSA\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503642D8-B3BB-49BE-B2CE-FD0D8B8C88A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5BE48D-318F-4508-9152-912DDAA6F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1462,6 +1462,9 @@
   </si>
   <si>
     <t>matrix_05</t>
+  </si>
+  <si>
+    <t>string_06</t>
   </si>
 </sst>
 </file>
@@ -1893,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2605,7 +2608,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D66" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_HUSTLE\PORGRAMMING\DSA\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5BE48D-318F-4508-9152-912DDAA6F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405DF3A-5D65-4DFC-9E98-F67A92B77CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,6 +1465,9 @@
   </si>
   <si>
     <t>string_06</t>
+  </si>
+  <si>
+    <t>string_07</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1900,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2622,7 +2625,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
+      </c>
+      <c r="D67" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_HUSTLE\PORGRAMMING\DSA\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405DF3A-5D65-4DFC-9E98-F67A92B77CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDD51E-ADD4-4113-B186-A0C739BD1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1468,6 +1468,9 @@
   </si>
   <si>
     <t>string_07</t>
+  </si>
+  <si>
+    <t>string_08</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2660,8 +2663,9 @@
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
+      <c r="C70" s="4"/>
+      <c r="D70" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\00_HUSTLE\PORGRAMMING\DSA\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBDD51E-ADD4-4113-B186-A0C739BD1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924C2AA-99A7-4BFA-904C-A1B2BDA31071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1471,6 +1471,9 @@
   </si>
   <si>
     <t>string_08</t>
+  </si>
+  <si>
+    <t>on process</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2663,7 +2666,9 @@
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="D70" t="s">
         <v>481</v>
       </c>
